--- a/Doc/_old/brute/Repartition_heures.xlsx
+++ b/Doc/_old/brute/Repartition_heures.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FF0444-10DC-43FA-AA18-13B04D9DBBED}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="0" yWindow="444" windowWidth="22260" windowHeight="12636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Auteur</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -142,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -226,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -286,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -356,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -366,7 +367,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -382,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0" shapeId="0">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -392,7 +393,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -408,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0">
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -418,7 +419,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -434,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0" shapeId="0">
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -444,7 +445,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -460,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="0" shapeId="0">
+    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -470,7 +471,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -487,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="0" shapeId="0">
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -497,7 +498,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -514,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="0" shapeId="0">
+    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -524,7 +525,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -541,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P5" authorId="0" shapeId="0">
+    <comment ref="P5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -551,7 +552,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -567,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -580,7 +581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -623,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -666,7 +667,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -709,7 +710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -742,7 +743,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -775,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -798,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -821,7 +822,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0">
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -844,7 +845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0">
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -867,7 +868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0" shapeId="0">
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -890,7 +891,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="0" shapeId="0">
+    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -913,7 +914,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="0" shapeId="0">
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -936,7 +937,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="0" shapeId="0">
+    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -959,7 +960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P6" authorId="0" shapeId="0">
+    <comment ref="P6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -972,7 +973,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -986,7 +987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1048,7 +1049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -1080,7 +1081,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -1140,7 +1141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
           <rPr>
@@ -1200,7 +1201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -1260,7 +1261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -1320,7 +1321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
         <r>
           <rPr>
@@ -1354,7 +1355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0" shapeId="0">
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
       <text>
         <r>
           <rPr>
@@ -1364,7 +1365,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -1380,7 +1381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K7" authorId="0" shapeId="0">
+    <comment ref="K7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
       <text>
         <r>
           <rPr>
@@ -1390,7 +1391,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -1406,7 +1407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
       <text>
         <r>
           <rPr>
@@ -1416,7 +1417,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -1432,7 +1433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M7" authorId="0" shapeId="0">
+    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -1442,7 +1443,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -1458,7 +1459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -1468,7 +1469,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -1485,7 +1486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O7" authorId="0" shapeId="0">
+    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -1495,7 +1496,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -1512,7 +1513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -1522,7 +1523,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -1536,7 +1537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -1549,7 +1550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -1562,7 +1563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
       <text>
         <r>
           <rPr>
@@ -1575,7 +1576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
       <text>
         <r>
           <rPr>
@@ -1638,7 +1639,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
       <text>
         <r>
           <rPr>
@@ -1651,7 +1652,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
       <text>
         <r>
           <rPr>
@@ -1661,7 +1662,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -1676,7 +1677,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
       <text>
         <r>
           <rPr>
@@ -1686,7 +1687,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -1702,7 +1703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0">
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
       <text>
         <r>
           <rPr>
@@ -1712,7 +1713,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -1728,7 +1729,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
       <text>
         <r>
           <rPr>
@@ -1738,7 +1739,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -1754,7 +1755,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
       <text>
         <r>
           <rPr>
@@ -1764,7 +1765,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -1779,7 +1780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0" shapeId="0">
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
       <text>
         <r>
           <rPr>
@@ -1789,7 +1790,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -1804,7 +1805,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0" shapeId="0">
+    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
       <text>
         <r>
           <rPr>
@@ -1814,7 +1815,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -1829,7 +1830,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0" shapeId="0">
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
       <text>
         <r>
           <rPr>
@@ -1839,7 +1840,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -1854,7 +1855,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="0" shapeId="0">
+    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
       <text>
         <r>
           <rPr>
@@ -1864,7 +1865,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -1879,7 +1880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0" shapeId="0">
+    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
       <text>
         <r>
           <rPr>
@@ -1889,7 +1890,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -1904,7 +1905,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O9" authorId="0" shapeId="0">
+    <comment ref="O9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003D000000}">
       <text>
         <r>
           <rPr>
@@ -1914,7 +1915,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -1929,7 +1930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P9" authorId="0" shapeId="0">
+    <comment ref="P9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -1939,7 +1940,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -2065,7 +2066,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2240,8 +2241,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{271C3ECF-16EA-4881-8D6B-F294239060C0}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2515,21 +2544,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" style="7" customWidth="1"/>
     <col min="2" max="17" width="5.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.83203125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -2537,7 +2566,7 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -2545,7 +2574,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -2599,7 +2628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -2654,7 +2683,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -2709,7 +2738,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -2764,7 +2793,7 @@
         <v>96.25</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -2819,7 +2848,7 @@
         <v>105.25</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2874,80 +2903,80 @@
         <v>106.25</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="4">
-        <f>SUM(B5:B9)</f>
+        <f t="shared" ref="B10:R10" si="1">SUM(B5:B9)</f>
         <v>9.5</v>
       </c>
       <c r="C10" s="4">
-        <f>SUM(C5:C9)</f>
+        <f t="shared" si="1"/>
         <v>62.75</v>
       </c>
       <c r="D10" s="4">
-        <f>SUM(D5:D9)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="E10" s="4">
-        <f>SUM(E5:E9)</f>
+        <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
       <c r="F10" s="4">
-        <f>SUM(F5:F9)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="G10" s="4">
-        <f>SUM(G5:G9)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="H10" s="4">
-        <f>SUM(H5:H9)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="I10" s="4">
-        <f>SUM(I5:I9)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="J10" s="4">
-        <f>SUM(J5:J9)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="K10" s="4">
-        <f>SUM(K5:K9)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="L10" s="4">
-        <f>SUM(L5:L9)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="M10" s="4">
-        <f>SUM(M5:M9)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="N10" s="4">
-        <f>SUM(N5:N9)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="O10" s="4">
-        <f>SUM(O5:O9)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="P10" s="4">
-        <f>SUM(P5:P9)</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="Q10" s="4">
-        <f>SUM(Q5:Q9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R10" s="12">
-        <f>SUM(R5:R9)</f>
+        <f t="shared" si="1"/>
         <v>510.75</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -2955,7 +2984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
@@ -2963,17 +2992,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>0</v>
       </c>
@@ -2981,7 +3010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
@@ -2989,12 +3018,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
